--- a/fourth-day/Calculation.xlsx
+++ b/fourth-day/Calculation.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\luca\SystemnaheProgrammierung\fourth-day\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC9B21F4-A39F-4CBB-9302-0097C79364FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1657E3F0-0516-4AB1-A684-DB10C168BB27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{50D93F38-0902-41B7-BE28-509A111C2252}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="2" xr2:uid="{50D93F38-0902-41B7-BE28-509A111C2252}"/>
   </bookViews>
   <sheets>
-    <sheet name="Diagramm" sheetId="5" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
+    <sheet name="ExecutionTime - Chart" sheetId="5" r:id="rId1"/>
+    <sheet name="ExecutionTime - Data" sheetId="1" r:id="rId2"/>
+    <sheet name="MemoryUsage - Chart" sheetId="8" r:id="rId3"/>
+    <sheet name="MemoryUsage - Data" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
   <si>
     <t>Char</t>
   </si>
@@ -56,6 +58,21 @@
   </si>
   <si>
     <t>Measurement</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>1 Set</t>
+  </si>
+  <si>
+    <t>2 Sets</t>
+  </si>
+  <si>
+    <t>3 Sets</t>
   </si>
 </sst>
 </file>
@@ -91,8 +108,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -199,7 +219,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$17</c:f>
+              <c:f>'ExecutionTime - Data'!$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -222,7 +242,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$A$18:$B$37</c:f>
+              <c:f>'ExecutionTime - Data'!$A$18:$B$37</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="20"/>
                 <c:lvl>
@@ -306,7 +326,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$18:$C$37</c:f>
+              <c:f>'ExecutionTime - Data'!$C$18:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -384,7 +404,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$D$17</c:f>
+              <c:f>'ExecutionTime - Data'!$D$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -407,7 +427,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$A$18:$B$37</c:f>
+              <c:f>'ExecutionTime - Data'!$A$18:$B$37</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="20"/>
                 <c:lvl>
@@ -491,7 +511,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$D$18:$D$37</c:f>
+              <c:f>'ExecutionTime - Data'!$D$18:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -911,7 +931,652 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>MemoryUsage - C</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MemoryUsage - Data'!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:shade val="76000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'MemoryUsage - Data'!$A$16:$B$27</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1 Set</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2 Sets</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3 Sets</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1 Set</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Sets</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Sets</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1 Set</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2 Sets</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3 Sets</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1 Set</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2 Sets</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3 Sets</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Char</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Short</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Int</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Float</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MemoryUsage - Data'!$C$16:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9963-4084-AB96-23D766C5F29A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MemoryUsage - Data'!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Program</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:tint val="77000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'MemoryUsage - Data'!$A$16:$B$27</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1 Set</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2 Sets</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3 Sets</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1 Set</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Sets</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Sets</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1 Set</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2 Sets</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3 Sets</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1 Set</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2 Sets</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3 Sets</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Char</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Short</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Int</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Float</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MemoryUsage - Data'!$D$16:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>580</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9963-4084-AB96-23D766C5F29A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1455740288"/>
+        <c:axId val="1455743200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1455740288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1455743200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1455743200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>MemoryUsage [bytes]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1455740288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
 </cs:colorStyle>
@@ -1422,8 +2087,524 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9A46E988-B12C-479B-9FD6-66A6C3809274}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9FAB254B-EB11-4D1F-8FCB-75DD392CACE4}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0" zoomToFit="1"/>
@@ -1437,13 +2618,46 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9294725" cy="6012264"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{187D0859-9F9C-462B-A0F2-3702EFFBE83D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
     <xdr:ext cx="9294725" cy="6003890"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{187D0859-9F9C-462B-A0F2-3702EFFBE83D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61AE14B5-1B26-49EA-8EF5-27D1C90B582B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1772,18 +2986,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C2">
@@ -1803,7 +3017,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -1826,7 +3040,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -1847,14 +3061,14 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
@@ -1877,7 +3091,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -1898,7 +3112,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B11" t="s">
@@ -1921,7 +3135,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>5</v>
       </c>
@@ -1942,14 +3156,14 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B15" t="s">
@@ -1972,7 +3186,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -2001,7 +3215,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B18">
@@ -2015,7 +3229,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
       <c r="B19">
         <v>2</v>
       </c>
@@ -2027,7 +3241,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
       <c r="B20">
         <v>3</v>
       </c>
@@ -2039,7 +3253,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
       <c r="B21">
         <v>4</v>
       </c>
@@ -2051,7 +3265,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2"/>
       <c r="B22">
         <v>5</v>
       </c>
@@ -2063,7 +3277,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B23">
@@ -2077,7 +3291,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2"/>
       <c r="B24">
         <v>2</v>
       </c>
@@ -2089,7 +3303,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2"/>
       <c r="B25">
         <v>3</v>
       </c>
@@ -2101,7 +3315,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2"/>
       <c r="B26">
         <v>4</v>
       </c>
@@ -2113,7 +3327,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
+      <c r="A27" s="2"/>
       <c r="B27">
         <v>5</v>
       </c>
@@ -2125,7 +3339,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B28">
@@ -2139,7 +3353,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
+      <c r="A29" s="2"/>
       <c r="B29">
         <v>2</v>
       </c>
@@ -2151,7 +3365,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
+      <c r="A30" s="2"/>
       <c r="B30">
         <v>3</v>
       </c>
@@ -2163,7 +3377,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
+      <c r="A31" s="2"/>
       <c r="B31">
         <v>4</v>
       </c>
@@ -2175,7 +3389,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
+      <c r="A32" s="2"/>
       <c r="B32">
         <v>5</v>
       </c>
@@ -2187,7 +3401,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B33">
@@ -2201,7 +3415,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
+      <c r="A34" s="2"/>
       <c r="B34">
         <v>2</v>
       </c>
@@ -2213,7 +3427,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
+      <c r="A35" s="2"/>
       <c r="B35">
         <v>3</v>
       </c>
@@ -2225,7 +3439,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
+      <c r="A36" s="2"/>
       <c r="B36">
         <v>4</v>
       </c>
@@ -2237,7 +3451,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
+      <c r="A37" s="2"/>
       <c r="B37">
         <v>5</v>
       </c>
@@ -2250,6 +3464,10 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C1:G1"/>
@@ -2258,12 +3476,234 @@
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A18:A22"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D81B38-FCBC-4BFC-A0F6-31AFC1C20B2B}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>41</v>
+      </c>
+      <c r="D26">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>580</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>